--- a/example.xlsx
+++ b/example.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -46,10 +46,10 @@
     <t>O3_8h</t>
   </si>
   <si>
-    <t>良</t>
+    <t>轻度污染</t>
   </si>
   <si>
-    <t>轻度污染</t>
+    <t>良</t>
   </si>
   <si>
     <t>中度污染</t>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:I3312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1050,22 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>41640</v>
-      </c>
-      <c r="B2">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
+    <row r="2" spans="6:9">
       <c r="F2">
         <v>28</v>
       </c>
@@ -1087,7 +1072,7 @@
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>111</v>
@@ -1116,7 +1101,7 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>47</v>
@@ -1145,7 +1130,7 @@
         <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>114</v>
@@ -1174,7 +1159,7 @@
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>91</v>
@@ -1232,7 +1217,7 @@
         <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -1319,7 +1304,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>63</v>
@@ -1348,7 +1333,7 @@
         <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>106</v>
@@ -1406,7 +1391,7 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>82</v>
@@ -1435,7 +1420,7 @@
         <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>82</v>
@@ -1464,7 +1449,7 @@
         <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>95</v>
@@ -1551,7 +1536,7 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>74</v>
@@ -1667,7 +1652,7 @@
         <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>115</v>
@@ -1783,7 +1768,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>53</v>
@@ -1812,7 +1797,7 @@
         <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>89</v>
@@ -1841,7 +1826,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>40</v>
@@ -1899,7 +1884,7 @@
         <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>72</v>
@@ -1986,7 +1971,7 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>56</v>
@@ -2073,7 +2058,7 @@
         <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>88</v>
@@ -2131,7 +2116,7 @@
         <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>102</v>
@@ -2160,7 +2145,7 @@
         <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>67</v>
@@ -2247,7 +2232,7 @@
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>98</v>
@@ -2276,7 +2261,7 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>111</v>
@@ -2421,7 +2406,7 @@
         <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>105</v>
@@ -2450,7 +2435,7 @@
         <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>71</v>
@@ -2479,7 +2464,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>34</v>
@@ -2740,7 +2725,7 @@
         <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>78</v>
@@ -2769,7 +2754,7 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>38</v>
@@ -2856,7 +2841,7 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>57</v>
@@ -2943,7 +2928,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>48</v>
@@ -3001,7 +2986,7 @@
         <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69">
         <v>94</v>
@@ -3030,7 +3015,7 @@
         <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70">
         <v>81</v>
@@ -3117,7 +3102,7 @@
         <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>20</v>
@@ -3146,7 +3131,7 @@
         <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>21</v>
@@ -3175,7 +3160,7 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75">
         <v>94</v>
@@ -3204,7 +3189,7 @@
         <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <v>113</v>
@@ -3233,7 +3218,7 @@
         <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>83</v>
@@ -3262,7 +3247,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>37</v>
@@ -3291,7 +3276,7 @@
         <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>46</v>
@@ -3349,7 +3334,7 @@
         <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>25</v>
@@ -3378,7 +3363,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>47</v>
@@ -3581,7 +3566,7 @@
         <v>63</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89">
         <v>39</v>
@@ -3610,7 +3595,7 @@
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90">
         <v>31</v>
@@ -3668,7 +3653,7 @@
         <v>137</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>104</v>
@@ -3697,7 +3682,7 @@
         <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93">
         <v>99</v>
@@ -3726,7 +3711,7 @@
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94">
         <v>23</v>
@@ -3755,7 +3740,7 @@
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95">
         <v>32</v>
@@ -3784,7 +3769,7 @@
         <v>65</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>22</v>
@@ -3813,7 +3798,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97">
         <v>53</v>
@@ -3842,7 +3827,7 @@
         <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>97</v>
@@ -3958,7 +3943,7 @@
         <v>81</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102">
         <v>60</v>
@@ -3987,7 +3972,7 @@
         <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103">
         <v>100</v>
@@ -4074,7 +4059,7 @@
         <v>120</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106">
         <v>91</v>
@@ -4103,7 +4088,7 @@
         <v>82</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107">
         <v>51</v>
@@ -4132,7 +4117,7 @@
         <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108">
         <v>91</v>
@@ -4190,7 +4175,7 @@
         <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>61</v>
@@ -4219,7 +4204,7 @@
         <v>81</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <v>60</v>
@@ -4248,7 +4233,7 @@
         <v>67</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <v>48</v>
@@ -4277,7 +4262,7 @@
         <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>58</v>
@@ -4393,7 +4378,7 @@
         <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>37</v>
@@ -4422,7 +4407,7 @@
         <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>51</v>
@@ -4451,7 +4436,7 @@
         <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>61</v>
@@ -4480,7 +4465,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D120">
         <v>89</v>
@@ -4509,7 +4494,7 @@
         <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121">
         <v>103</v>
@@ -4596,7 +4581,7 @@
         <v>89</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>38</v>
@@ -4625,7 +4610,7 @@
         <v>55</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <v>26</v>
@@ -4654,7 +4639,7 @@
         <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126">
         <v>23</v>
@@ -4683,7 +4668,7 @@
         <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <v>74</v>
@@ -4712,7 +4697,7 @@
         <v>85</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>63</v>
@@ -4741,7 +4726,7 @@
         <v>99</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129">
         <v>74</v>
@@ -4770,7 +4755,7 @@
         <v>83</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130">
         <v>61</v>
@@ -4799,7 +4784,7 @@
         <v>69</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131">
         <v>50</v>
@@ -4857,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133">
         <v>34</v>
@@ -4886,7 +4871,7 @@
         <v>87</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134">
         <v>52</v>
@@ -4915,7 +4900,7 @@
         <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135">
         <v>17</v>
@@ -4944,7 +4929,7 @@
         <v>115</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>59</v>
@@ -4973,7 +4958,7 @@
         <v>86</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>45</v>
@@ -5002,7 +4987,7 @@
         <v>122</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138">
         <v>56</v>
@@ -5060,7 +5045,7 @@
         <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140">
         <v>106</v>
@@ -5089,7 +5074,7 @@
         <v>105</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141">
         <v>79</v>
@@ -5176,7 +5161,7 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D144">
         <v>81</v>
@@ -5205,7 +5190,7 @@
         <v>101</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D145">
         <v>76</v>
@@ -5234,7 +5219,7 @@
         <v>88</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146">
         <v>65</v>
@@ -5263,7 +5248,7 @@
         <v>76</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147">
         <v>22</v>
@@ -5292,7 +5277,7 @@
         <v>97</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148">
         <v>35</v>
@@ -5321,7 +5306,7 @@
         <v>115</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149">
         <v>30</v>
@@ -5350,7 +5335,7 @@
         <v>119</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>42</v>
@@ -5466,7 +5451,7 @@
         <v>93</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154">
         <v>26</v>
@@ -5495,7 +5480,7 @@
         <v>117</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D155">
         <v>33</v>
@@ -5524,7 +5509,7 @@
         <v>123</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D156">
         <v>53</v>
@@ -5553,7 +5538,7 @@
         <v>143</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D157">
         <v>58</v>
@@ -5582,7 +5567,7 @@
         <v>67</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158">
         <v>49</v>
@@ -5640,7 +5625,7 @@
         <v>63</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160">
         <v>27</v>
@@ -5669,7 +5654,7 @@
         <v>82</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161">
         <v>27</v>
@@ -5698,7 +5683,7 @@
         <v>89</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162">
         <v>67</v>
@@ -5727,7 +5712,7 @@
         <v>71</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163">
         <v>40</v>
@@ -5756,7 +5741,7 @@
         <v>86</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164">
         <v>24</v>
@@ -5785,7 +5770,7 @@
         <v>117</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D165">
         <v>48</v>
@@ -5901,7 +5886,7 @@
         <v>116</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D169">
         <v>88</v>
@@ -5930,7 +5915,7 @@
         <v>115</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170">
         <v>61</v>
@@ -5988,7 +5973,7 @@
         <v>86</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172">
         <v>44</v>
@@ -6017,7 +6002,7 @@
         <v>95</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173">
         <v>65</v>
@@ -6046,7 +6031,7 @@
         <v>89</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174">
         <v>29</v>
@@ -6075,7 +6060,7 @@
         <v>111</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>23</v>
@@ -6133,7 +6118,7 @@
         <v>134</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177">
         <v>102</v>
@@ -6191,7 +6176,7 @@
         <v>74</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179">
         <v>19</v>
@@ -6220,7 +6205,7 @@
         <v>67</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180">
         <v>19</v>
@@ -6307,7 +6292,7 @@
         <v>117</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183">
         <v>89</v>
@@ -6336,7 +6321,7 @@
         <v>77</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184">
         <v>55</v>
@@ -6510,7 +6495,7 @@
         <v>138</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190">
         <v>106</v>
@@ -6539,7 +6524,7 @@
         <v>60</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191">
         <v>25</v>
@@ -6568,7 +6553,7 @@
         <v>113</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D192">
         <v>27</v>
@@ -6597,7 +6582,7 @@
         <v>81</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <v>28</v>
